--- a/TheForsaken/Autres/Einstein Riddle.xlsx
+++ b/TheForsaken/Autres/Einstein Riddle.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yohme\Documents\Fichiers_pour_l_internet\Grosse_Enigme\Autres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yohme\OneDrive\Documents\PapeYo_HTML\TheForsaken\Autres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B77E487-BBD3-4AD9-96E0-B38F084E345C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7826C92-08C7-4694-B09B-FDE363103224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{51E89CD5-ECBC-4F59-A6DD-443E570B26A7}"/>
+    <workbookView xWindow="-25320" yWindow="-825" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{51E89CD5-ECBC-4F59-A6DD-443E570B26A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Einstein Riddle Iyad" sheetId="1" r:id="rId1"/>
-    <sheet name="Einstein Riddle Flo" sheetId="2" r:id="rId2"/>
+    <sheet name="Einstein Riddle" sheetId="4" r:id="rId1"/>
+    <sheet name="Einstein Riddle Iyad" sheetId="1" r:id="rId2"/>
+    <sheet name="Einstein Riddle Flo" sheetId="2" r:id="rId3"/>
+    <sheet name="Einstein Riddle Lou" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="123">
   <si>
     <t>Année</t>
   </si>
@@ -305,6 +307,105 @@
   </si>
   <si>
     <t>Aethal Fitaris Braxea</t>
+  </si>
+  <si>
+    <t>Étudiant.e</t>
+  </si>
+  <si>
+    <t>Professeur</t>
+  </si>
+  <si>
+    <t>Bâtiment</t>
+  </si>
+  <si>
+    <t>Heure</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>Maison</t>
+  </si>
+  <si>
+    <t>Nationalité</t>
+  </si>
+  <si>
+    <t>Boisson</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Cigare</t>
+  </si>
+  <si>
+    <t>Poisson</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Chien</t>
+  </si>
+  <si>
+    <t>Oiseau</t>
+  </si>
+  <si>
+    <t>Cheval</t>
+  </si>
+  <si>
+    <t>Blanc</t>
+  </si>
+  <si>
+    <t>Bleu</t>
+  </si>
+  <si>
+    <t>Dunhill</t>
+  </si>
+  <si>
+    <t>Blend</t>
+  </si>
+  <si>
+    <t>Pall Mall</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>Bluemaster</t>
+  </si>
+  <si>
+    <t>Thé</t>
+  </si>
+  <si>
+    <t>Bière</t>
+  </si>
+  <si>
+    <t>Lait</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Suédois</t>
+  </si>
+  <si>
+    <t>Norvégien</t>
+  </si>
+  <si>
+    <t>Danois</t>
+  </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>Allemand</t>
+  </si>
+  <si>
+    <t>A trouver</t>
+  </si>
+  <si>
+    <t>Casier</t>
   </si>
 </sst>
 </file>
@@ -846,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,9 +958,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,10 +982,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -899,10 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -989,119 +1084,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,9 +1252,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1161,7 +1292,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1267,7 +1398,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1409,628 +1540,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9EFC4A-7F7F-4344-91B6-694548ADDA2D}">
-  <dimension ref="A1:L28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49">
-        <v>1</v>
-      </c>
-      <c r="C1" s="49">
-        <v>2</v>
-      </c>
-      <c r="D1" s="49">
-        <v>3</v>
-      </c>
-      <c r="E1" s="49">
-        <v>4</v>
-      </c>
-      <c r="F1" s="15">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="30">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="31">
-        <v>3</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="32">
-        <v>6</v>
-      </c>
-      <c r="C12" s="40">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="33">
-        <v>4</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="61">
-        <v>13</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="27">
-        <v>5</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="32">
-        <v>6</v>
-      </c>
-      <c r="C17" s="39">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="42">
-        <v>10</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="34">
-        <v>7</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="35">
-        <v>2</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="35">
-        <v>2</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:C8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB60EE4F-DCF0-4E80-9C13-F35EAA0550AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334C85B3-2558-4FA8-84EB-65CC5DB7F5D2}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,272 +1572,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="str">
+      <c r="A1" s="13" t="str">
         <f>M1</f>
-        <v>Allée</v>
-      </c>
-      <c r="B1" s="49">
+        <v>Maison</v>
+      </c>
+      <c r="B1" s="46">
         <f>M2</f>
         <v>1</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="46">
         <f>M3</f>
         <v>2</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="46">
         <f>M4</f>
         <v>3</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="46">
         <f>M5</f>
         <v>4</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="14">
         <f>M6</f>
         <v>5</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>68</v>
+      <c r="H1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="str">
+      <c r="A2" s="15" t="str">
         <f>H1</f>
-        <v>Vêtement</v>
-      </c>
-      <c r="B2" s="65" t="str">
+        <v>Nationalité</v>
+      </c>
+      <c r="B2" s="61" t="str">
         <f>H3</f>
-        <v>Santiags</v>
-      </c>
-      <c r="C2" s="65" t="str">
+        <v>Norvégien</v>
+      </c>
+      <c r="C2" s="61" t="str">
         <f>H4</f>
-        <v>Cape</v>
-      </c>
-      <c r="D2" s="66" t="str">
+        <v>Danois</v>
+      </c>
+      <c r="D2" s="62" t="str">
         <f>H5</f>
-        <v>Bonnet bleu</v>
-      </c>
-      <c r="E2" s="65" t="str">
+        <v>Anglais</v>
+      </c>
+      <c r="E2" s="61" t="str">
         <f>H6</f>
-        <v>Manteau en cuir</v>
-      </c>
-      <c r="F2" s="67" t="str">
+        <v>Allemand</v>
+      </c>
+      <c r="F2" s="63" t="str">
         <f>H2</f>
-        <v>T-shirt AC/DC</v>
+        <v>Suédois</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>81</v>
+      <c r="H2" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="28">
+        <v>105</v>
+      </c>
+      <c r="M2" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="str">
+      <c r="A3" s="15" t="str">
         <f>I1</f>
-        <v>Element magique</v>
-      </c>
-      <c r="B3" s="65" t="str">
+        <v>Boisson</v>
+      </c>
+      <c r="B3" s="61" t="str">
         <f>I4</f>
-        <v>Terre</v>
-      </c>
-      <c r="C3" s="65" t="str">
+        <v>Eau</v>
+      </c>
+      <c r="C3" s="61" t="str">
         <f>I2</f>
-        <v>Air</v>
-      </c>
-      <c r="D3" s="65" t="str">
+        <v>Thé</v>
+      </c>
+      <c r="D3" s="61" t="str">
         <f>I5</f>
-        <v>Eau</v>
-      </c>
-      <c r="E3" s="65" t="str">
+        <v>Lait</v>
+      </c>
+      <c r="E3" s="61" t="str">
         <f>I6</f>
-        <v>Feu</v>
-      </c>
-      <c r="F3" s="67" t="str">
+        <v>Café</v>
+      </c>
+      <c r="F3" s="63" t="str">
         <f>I3</f>
-        <v>Electricité</v>
+        <v>Bière</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>67</v>
+      <c r="H3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>79</v>
+        <v>109</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="28">
+        <v>50</v>
+      </c>
+      <c r="M3" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="str">
+      <c r="A4" s="15" t="str">
         <f>J1</f>
-        <v>Signe distinctif</v>
-      </c>
-      <c r="B4" s="65" t="str">
+        <v>Cigare</v>
+      </c>
+      <c r="B4" s="61" t="str">
         <f>J6</f>
-        <v>Très grand</v>
-      </c>
-      <c r="C4" s="65" t="str">
+        <v>Dunhill</v>
+      </c>
+      <c r="C4" s="61" t="str">
         <f>J2</f>
-        <v>Doigt manquant</v>
-      </c>
-      <c r="D4" s="65" t="str">
+        <v>Blend</v>
+      </c>
+      <c r="D4" s="61" t="str">
         <f>J3</f>
-        <v>Gros nez</v>
-      </c>
-      <c r="E4" s="65" t="str">
+        <v>Pall Mall</v>
+      </c>
+      <c r="E4" s="61" t="str">
         <f>J5</f>
-        <v>Chevalière en or</v>
-      </c>
-      <c r="F4" s="67" t="str">
+        <v>Prince</v>
+      </c>
+      <c r="F4" s="63" t="str">
         <f>J4</f>
-        <v>Barbe blanche</v>
+        <v>Bluemaster</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>65</v>
+      <c r="H4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4" s="28">
+        <v>29</v>
+      </c>
+      <c r="M4" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="str">
+      <c r="A5" s="15" t="str">
         <f>K1</f>
-        <v>Livre</v>
-      </c>
-      <c r="B5" s="65" t="str">
+        <v>Animal</v>
+      </c>
+      <c r="B5" s="61" t="str">
         <f>K5</f>
-        <v>Codex Argenteus</v>
-      </c>
-      <c r="C5" s="65" t="str">
+        <v>Chat</v>
+      </c>
+      <c r="C5" s="61" t="str">
         <f>K6</f>
-        <v>Codex Atlanticus</v>
-      </c>
-      <c r="D5" s="65" t="str">
+        <v>Cheval</v>
+      </c>
+      <c r="D5" s="61" t="str">
         <f>K4</f>
-        <v>Codex Sinaiticus</v>
-      </c>
-      <c r="E5" s="65" t="str">
+        <v>Oiseau</v>
+      </c>
+      <c r="E5" s="61" t="str">
         <f>K3</f>
-        <v>Codex Gigas</v>
-      </c>
-      <c r="F5" s="67" t="str">
+        <v>Poisson</v>
+      </c>
+      <c r="F5" s="63" t="str">
         <f>K2</f>
-        <v>Codex Aureus</v>
+        <v>Chien</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>66</v>
+      <c r="H5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="28">
+        <v>28</v>
+      </c>
+      <c r="M5" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50" t="str">
+      <c r="A6" s="17" t="str">
         <f>L1</f>
-        <v>Nom du mage</v>
-      </c>
-      <c r="B6" s="68" t="str">
+        <v>Couleur</v>
+      </c>
+      <c r="B6" s="64" t="str">
         <f>L4</f>
-        <v>Koleas Yravae Aneqille</v>
-      </c>
-      <c r="C6" s="68" t="str">
+        <v>Jaune</v>
+      </c>
+      <c r="C6" s="64" t="str">
         <f>L6</f>
-        <v>Aethal Fitaris Braxea</v>
-      </c>
-      <c r="D6" s="68" t="str">
+        <v>Bleu</v>
+      </c>
+      <c r="D6" s="64" t="str">
         <f>L5</f>
-        <v>Esorin Ulidius Osgroln</v>
-      </c>
-      <c r="E6" s="68" t="str">
+        <v>Rouge</v>
+      </c>
+      <c r="E6" s="64" t="str">
         <f>L3</f>
-        <v>Cacius Stanislas Uvbin</v>
-      </c>
-      <c r="F6" s="69" t="str">
+        <v>Vert</v>
+      </c>
+      <c r="F6" s="65" t="str">
         <f>L2</f>
-        <v>Taphior Bukius Oveus</v>
+        <v>Blanc</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="29">
+      <c r="H6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" s="27">
         <v>5</v>
       </c>
     </row>
@@ -2335,13 +1856,13 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2353,14 +1874,14 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="str">
+      <c r="A9" s="13" t="str">
         <f>_xlfn.CONCAT(I4,J12,L6)</f>
-        <v>Terre&lt;-&gt;Aethal Fitaris Braxea</v>
-      </c>
-      <c r="B9" s="72">
+        <v>Eau&lt;-&gt;Bleu</v>
+      </c>
+      <c r="B9" s="28">
         <v>1</v>
       </c>
-      <c r="C9" s="73"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2372,14 +1893,14 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="str">
+      <c r="A10" s="15" t="str">
         <f>_xlfn.CONCAT(I5,J10,L5)</f>
-        <v>Eau=Esorin Ulidius Osgroln</v>
-      </c>
-      <c r="B10" s="74">
+        <v>Lait=Rouge</v>
+      </c>
+      <c r="B10" s="29">
         <v>3</v>
       </c>
-      <c r="C10" s="73"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2393,14 +1914,14 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="str">
+      <c r="A11" s="15" t="str">
         <f>_xlfn.CONCAT(I3,J10,K2)</f>
-        <v>Electricité=Codex Aureus</v>
-      </c>
-      <c r="B11" s="75" t="s">
+        <v>Bière=Chien</v>
+      </c>
+      <c r="B11" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2414,14 +1935,14 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="str">
+      <c r="A12" s="15" t="str">
         <f>_xlfn.CONCAT(I2,J10,J2)</f>
-        <v>Air=Doigt manquant</v>
-      </c>
-      <c r="B12" s="76">
+        <v>Thé=Blend</v>
+      </c>
+      <c r="B12" s="30">
         <v>6</v>
       </c>
-      <c r="C12" s="77">
+      <c r="C12" s="38">
         <v>9</v>
       </c>
       <c r="D12" s="2"/>
@@ -2437,14 +1958,14 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="str">
+      <c r="A13" s="15" t="str">
         <f>_xlfn.CONCAT(H5,J10,K4)</f>
-        <v>Bonnet bleu=Codex Sinaiticus</v>
-      </c>
-      <c r="B13" s="75" t="s">
+        <v>Anglais=Oiseau</v>
+      </c>
+      <c r="B13" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="73"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2456,14 +1977,14 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="str">
+      <c r="A14" s="15" t="str">
         <f>_xlfn.CONCAT(H3,J10,L4)</f>
-        <v>Santiags=Koleas Yravae Aneqille</v>
-      </c>
-      <c r="B14" s="78">
+        <v>Norvégien=Jaune</v>
+      </c>
+      <c r="B14" s="31">
         <v>4</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2475,14 +1996,14 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="str">
+      <c r="A15" s="15" t="str">
         <f>_xlfn.CONCAT(H4,J12,K5)</f>
-        <v>Cape&lt;-&gt;Codex Argenteus</v>
-      </c>
-      <c r="B15" s="79">
+        <v>Danois&lt;-&gt;Chat</v>
+      </c>
+      <c r="B15" s="57">
         <v>13</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2494,14 +2015,14 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="str">
+      <c r="A16" s="15" t="str">
         <f>_xlfn.CONCAT(K6,J12,H3)</f>
-        <v>Codex Atlanticus&lt;-&gt;Santiags</v>
-      </c>
-      <c r="B16" s="80">
+        <v>Cheval&lt;-&gt;Norvégien</v>
+      </c>
+      <c r="B16" s="25">
         <v>5</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2513,14 +2034,14 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="str">
+      <c r="A17" s="15" t="str">
         <f>_xlfn.CONCAT(H2,J10,J4)</f>
-        <v>T-shirt AC/DC=Barbe blanche</v>
-      </c>
-      <c r="B17" s="76">
+        <v>Suédois=Bluemaster</v>
+      </c>
+      <c r="B17" s="30">
         <v>6</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="66">
         <v>8</v>
       </c>
       <c r="D17" s="2"/>
@@ -2534,14 +2055,14 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="str">
+      <c r="A18" s="15" t="str">
         <f>_xlfn.CONCAT(I6,J10,H6)</f>
-        <v>Feu=Manteau en cuir</v>
-      </c>
-      <c r="B18" s="81">
+        <v>Café=Allemand</v>
+      </c>
+      <c r="B18" s="40">
         <v>10</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2553,14 +2074,14 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="str">
+      <c r="A19" s="15" t="str">
         <f>_xlfn.CONCAT(H4,J12,J6)</f>
-        <v>Cape&lt;-&gt;Très grand</v>
-      </c>
-      <c r="B19" s="82">
+        <v>Danois&lt;-&gt;Dunhill</v>
+      </c>
+      <c r="B19" s="32">
         <v>7</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2572,14 +2093,14 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="str">
+      <c r="A20" s="15" t="str">
         <f>_xlfn.CONCAT(L3,J11,L2)</f>
-        <v>Cacius Stanislas Uvbin&lt;-Taphior Bukius Oveus</v>
-      </c>
-      <c r="B20" s="83">
+        <v>Vert&lt;-Blanc</v>
+      </c>
+      <c r="B20" s="33">
         <v>2</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2591,14 +2112,14 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="str">
+      <c r="A21" s="15" t="str">
         <f>_xlfn.CONCAT(L3,J10,J5)</f>
-        <v>Cacius Stanislas Uvbin=Chevalière en or</v>
-      </c>
-      <c r="B21" s="83">
+        <v>Vert=Prince</v>
+      </c>
+      <c r="B21" s="33">
         <v>2</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2610,14 +2131,14 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="str">
+      <c r="A22" s="15" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(M4,J10,J3)</f>
-        <v>3=Gros nez</v>
-      </c>
-      <c r="B22" s="36" t="s">
+        <v>3=Pall Mall</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2629,14 +2150,14 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="str">
+      <c r="A23" s="17" t="str">
         <f>_xlfn.CONCAT(M2,J10,I4)</f>
-        <v>1=Terre</v>
-      </c>
-      <c r="B23" s="37" t="s">
+        <v>1=Eau</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="84"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2667,8 +2188,1862 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9EFC4A-7F7F-4344-91B6-694548ADDA2D}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46">
+        <v>3</v>
+      </c>
+      <c r="E1" s="46">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="29">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="30">
+        <v>6</v>
+      </c>
+      <c r="C12" s="38">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="31">
+        <v>4</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="57">
+        <v>13</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="25">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="30">
+        <v>6</v>
+      </c>
+      <c r="C17" s="37">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="40">
+        <v>10</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="32">
+        <v>7</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="33">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="33">
+        <v>2</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB60EE4F-DCF0-4E80-9C13-F35EAA0550AB}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="str">
+        <f>M1</f>
+        <v>Allée</v>
+      </c>
+      <c r="B1" s="46">
+        <f>M2</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="46">
+        <f>M3</f>
+        <v>2</v>
+      </c>
+      <c r="D1" s="46">
+        <f>M4</f>
+        <v>3</v>
+      </c>
+      <c r="E1" s="46">
+        <f>M5</f>
+        <v>4</v>
+      </c>
+      <c r="F1" s="14">
+        <f>M6</f>
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="str">
+        <f>H1</f>
+        <v>Vêtement</v>
+      </c>
+      <c r="B2" s="61" t="str">
+        <f>H3</f>
+        <v>Santiags</v>
+      </c>
+      <c r="C2" s="61" t="str">
+        <f>H4</f>
+        <v>Cape</v>
+      </c>
+      <c r="D2" s="62" t="str">
+        <f>H5</f>
+        <v>Bonnet bleu</v>
+      </c>
+      <c r="E2" s="61" t="str">
+        <f>H6</f>
+        <v>Manteau en cuir</v>
+      </c>
+      <c r="F2" s="63" t="str">
+        <f>H2</f>
+        <v>T-shirt AC/DC</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="str">
+        <f>I1</f>
+        <v>Element magique</v>
+      </c>
+      <c r="B3" s="61" t="str">
+        <f>I4</f>
+        <v>Terre</v>
+      </c>
+      <c r="C3" s="61" t="str">
+        <f>I2</f>
+        <v>Air</v>
+      </c>
+      <c r="D3" s="61" t="str">
+        <f>I5</f>
+        <v>Eau</v>
+      </c>
+      <c r="E3" s="61" t="str">
+        <f>I6</f>
+        <v>Feu</v>
+      </c>
+      <c r="F3" s="63" t="str">
+        <f>I3</f>
+        <v>Electricité</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="str">
+        <f>J1</f>
+        <v>Signe distinctif</v>
+      </c>
+      <c r="B4" s="61" t="str">
+        <f>J6</f>
+        <v>Très grand</v>
+      </c>
+      <c r="C4" s="61" t="str">
+        <f>J2</f>
+        <v>Doigt manquant</v>
+      </c>
+      <c r="D4" s="61" t="str">
+        <f>J3</f>
+        <v>Gros nez</v>
+      </c>
+      <c r="E4" s="61" t="str">
+        <f>J5</f>
+        <v>Chevalière en or</v>
+      </c>
+      <c r="F4" s="63" t="str">
+        <f>J4</f>
+        <v>Barbe blanche</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="str">
+        <f>K1</f>
+        <v>Livre</v>
+      </c>
+      <c r="B5" s="61" t="str">
+        <f>K5</f>
+        <v>Codex Argenteus</v>
+      </c>
+      <c r="C5" s="61" t="str">
+        <f>K6</f>
+        <v>Codex Atlanticus</v>
+      </c>
+      <c r="D5" s="61" t="str">
+        <f>K4</f>
+        <v>Codex Sinaiticus</v>
+      </c>
+      <c r="E5" s="61" t="str">
+        <f>K3</f>
+        <v>Codex Gigas</v>
+      </c>
+      <c r="F5" s="63" t="str">
+        <f>K2</f>
+        <v>Codex Aureus</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="str">
+        <f>L1</f>
+        <v>Nom du mage</v>
+      </c>
+      <c r="B6" s="64" t="str">
+        <f>L4</f>
+        <v>Koleas Yravae Aneqille</v>
+      </c>
+      <c r="C6" s="64" t="str">
+        <f>L6</f>
+        <v>Aethal Fitaris Braxea</v>
+      </c>
+      <c r="D6" s="64" t="str">
+        <f>L5</f>
+        <v>Esorin Ulidius Osgroln</v>
+      </c>
+      <c r="E6" s="64" t="str">
+        <f>L3</f>
+        <v>Cacius Stanislas Uvbin</v>
+      </c>
+      <c r="F6" s="65" t="str">
+        <f>L2</f>
+        <v>Taphior Bukius Oveus</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="str">
+        <f>_xlfn.CONCAT(I4,J12,L6)</f>
+        <v>Terre&lt;-&gt;Aethal Fitaris Braxea</v>
+      </c>
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="str">
+        <f>_xlfn.CONCAT(I5,J10,L5)</f>
+        <v>Eau=Esorin Ulidius Osgroln</v>
+      </c>
+      <c r="B10" s="29">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="str">
+        <f>_xlfn.CONCAT(I3,J10,K2)</f>
+        <v>Electricité=Codex Aureus</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="str">
+        <f>_xlfn.CONCAT(I2,J10,J2)</f>
+        <v>Air=Doigt manquant</v>
+      </c>
+      <c r="B12" s="30">
+        <v>6</v>
+      </c>
+      <c r="C12" s="38">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="str">
+        <f>_xlfn.CONCAT(H5,J10,K4)</f>
+        <v>Bonnet bleu=Codex Sinaiticus</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="str">
+        <f>_xlfn.CONCAT(H3,J10,L4)</f>
+        <v>Santiags=Koleas Yravae Aneqille</v>
+      </c>
+      <c r="B14" s="31">
+        <v>4</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="str">
+        <f>_xlfn.CONCAT(H4,J12,K5)</f>
+        <v>Cape&lt;-&gt;Codex Argenteus</v>
+      </c>
+      <c r="B15" s="57">
+        <v>13</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="str">
+        <f>_xlfn.CONCAT(K6,J12,H3)</f>
+        <v>Codex Atlanticus&lt;-&gt;Santiags</v>
+      </c>
+      <c r="B16" s="25">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="str">
+        <f>_xlfn.CONCAT(H2,J10,J4)</f>
+        <v>T-shirt AC/DC=Barbe blanche</v>
+      </c>
+      <c r="B17" s="30">
+        <v>6</v>
+      </c>
+      <c r="C17" s="66">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="str">
+        <f>_xlfn.CONCAT(I6,J10,H6)</f>
+        <v>Feu=Manteau en cuir</v>
+      </c>
+      <c r="B18" s="40">
+        <v>10</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="str">
+        <f>_xlfn.CONCAT(H4,J12,J6)</f>
+        <v>Cape&lt;-&gt;Très grand</v>
+      </c>
+      <c r="B19" s="32">
+        <v>7</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="str">
+        <f>_xlfn.CONCAT(L3,J11,L2)</f>
+        <v>Cacius Stanislas Uvbin&lt;-Taphior Bukius Oveus</v>
+      </c>
+      <c r="B20" s="33">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="str">
+        <f>_xlfn.CONCAT(L3,J10,J5)</f>
+        <v>Cacius Stanislas Uvbin=Chevalière en or</v>
+      </c>
+      <c r="B21" s="33">
+        <v>2</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(M4,J10,J3)</f>
+        <v>3=Gros nez</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="17" t="str">
+        <f>_xlfn.CONCAT(M2,J10,I4)</f>
+        <v>1=Terre</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A18" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5215C966-B724-4FBC-B1D0-F5ACCE36197F}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="70" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="79" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="75" t="str">
+        <f>M1</f>
+        <v>Casier</v>
+      </c>
+      <c r="B1" s="76">
+        <f>M2</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="76">
+        <f>M3</f>
+        <v>2</v>
+      </c>
+      <c r="D1" s="76">
+        <f>M4</f>
+        <v>3</v>
+      </c>
+      <c r="E1" s="76">
+        <f>M5</f>
+        <v>4</v>
+      </c>
+      <c r="F1" s="77">
+        <f>M6</f>
+        <v>5</v>
+      </c>
+      <c r="G1" s="78"/>
+      <c r="H1" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="str">
+        <f>H1</f>
+        <v>Étudiant.e</v>
+      </c>
+      <c r="B2" s="81">
+        <f>H3</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="81">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="82">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="81">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="83">
+        <f>H2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="78"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="80" t="str">
+        <f>I1</f>
+        <v>Cours</v>
+      </c>
+      <c r="B3" s="81">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="81">
+        <f>I2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="81">
+        <f>I5</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="81">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="83">
+        <f>I3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="78"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="80" t="str">
+        <f>J1</f>
+        <v>Professeur</v>
+      </c>
+      <c r="B4" s="81">
+        <f>J6</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="81">
+        <f>J2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="81">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="81">
+        <f>J5</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="83">
+        <f>J4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="78"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="str">
+        <f>K1</f>
+        <v>Bâtiment</v>
+      </c>
+      <c r="B5" s="81">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="81">
+        <f>K6</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="81">
+        <f>K4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="81" t="str">
+        <f>K3</f>
+        <v>A trouver</v>
+      </c>
+      <c r="F5" s="83">
+        <f>K2</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="78"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="79" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="90" t="str">
+        <f>L1</f>
+        <v>Heure</v>
+      </c>
+      <c r="B6" s="91">
+        <f>L4</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="91">
+        <f>L6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="91">
+        <f>L5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="91">
+        <f>L3</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="92">
+        <f>L2</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="78"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="str">
+        <f>_xlfn.CONCAT(I4,J12,L6)</f>
+        <v>&lt;-&gt;</v>
+      </c>
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="str">
+        <f>_xlfn.CONCAT(I5,J10,L5)</f>
+        <v>=</v>
+      </c>
+      <c r="B10" s="29">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="str">
+        <f>_xlfn.CONCAT(I3,J10,K2)</f>
+        <v>=</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="str">
+        <f>_xlfn.CONCAT(I2,J10,J2)</f>
+        <v>=</v>
+      </c>
+      <c r="B12" s="30">
+        <v>6</v>
+      </c>
+      <c r="C12" s="38">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="str">
+        <f>_xlfn.CONCAT(H5,J10,K4)</f>
+        <v>=</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="str">
+        <f>_xlfn.CONCAT(H3,J10,L4)</f>
+        <v>=</v>
+      </c>
+      <c r="B14" s="31">
+        <v>4</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="str">
+        <f>_xlfn.CONCAT(H4,J12,K5)</f>
+        <v>&lt;-&gt;</v>
+      </c>
+      <c r="B15" s="57">
+        <v>13</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="str">
+        <f>_xlfn.CONCAT(K6,J12,H3)</f>
+        <v>&lt;-&gt;</v>
+      </c>
+      <c r="B16" s="25">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="str">
+        <f>_xlfn.CONCAT(H2,J10,J4)</f>
+        <v>=</v>
+      </c>
+      <c r="B17" s="30">
+        <v>6</v>
+      </c>
+      <c r="C17" s="66">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="str">
+        <f>_xlfn.CONCAT(I6,J10,H6)</f>
+        <v>=</v>
+      </c>
+      <c r="B18" s="40">
+        <v>10</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="str">
+        <f>_xlfn.CONCAT(H4,J12,J6)</f>
+        <v>&lt;-&gt;</v>
+      </c>
+      <c r="B19" s="32">
+        <v>7</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="str">
+        <f>_xlfn.CONCAT(L3,J11,L2)</f>
+        <v>&lt;-</v>
+      </c>
+      <c r="B20" s="33">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="str">
+        <f>_xlfn.CONCAT(L3,J10,J5)</f>
+        <v>=</v>
+      </c>
+      <c r="B21" s="33">
+        <v>2</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(M4,J10,J3)</f>
+        <v>3=</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="17" t="str">
+        <f>_xlfn.CONCAT(M2,J10,I4)</f>
+        <v>1=</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>